--- a/hw8.xlsx
+++ b/hw8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\GR6250-2019\hw8\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\Source\Repos\GR6250-2019\hw8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE668470-33B0-4622-BFD1-5F397272A343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7AA1B6-3A3A-449C-8E4D-534C3B62A88A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{FCFFA66E-F09B-406E-84E0-990A9ACED936}"/>
   </bookViews>
@@ -32,8 +32,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Keith Lewis</author>
+  </authors>
+  <commentList>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{A62982B8-135D-4ACB-A79A-BCF3A74562CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Create handles to fra's and swaps</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -109,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,16 +148,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,18 +184,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -166,6 +230,1512 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Forward</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.7000000000000099</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000096</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9000000000000092</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C739-4CD9-A51E-EB38AAA39F5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="492912664"/>
+        <c:axId val="492912992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="492912664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492912992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="492912992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492912664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88106</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>54768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>126206</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83343</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E48AA84-8FA3-47D8-9875-9C030AC584A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,8 +2034,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E377A32-36B0-46CA-9461-D5EEF7A10455}">
-  <dimension ref="B2:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E377A32-36B0-46CA-9461-D5EEF7A10455}">
+  <dimension ref="B2:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -473,20 +2043,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E4" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">_xll.PWFLAT.FORWARD(C5:C17,E5:E17)</f>
+        <v>-1887632</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -499,10 +2073,17 @@
       </c>
       <c r="F5" cm="1">
         <f t="array" ref="F5">_xll.INSTRUMENT.CASH_DEPOSIT(C5, E5)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+        <v>276992</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5:I105">_xll.PWFLAT.FORWARD.VALUE(I4,H5:H105)</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -515,10 +2096,16 @@
       </c>
       <c r="F6" cm="1">
         <f t="array" ref="F6">_xll.INSTRUMENT.CASH_DEPOSIT(C6, E6)</f>
-        <v>-1617726</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+        <v>276680</v>
+      </c>
+      <c r="H6">
+        <v>0.1</v>
+      </c>
+      <c r="I6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -531,10 +2118,16 @@
       </c>
       <c r="F7" cm="1">
         <f t="array" ref="F7">_xll.INSTRUMENT.CASH_DEPOSIT(C7, E7)</f>
-        <v>-1618686</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+        <v>276776</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -547,10 +2140,16 @@
       </c>
       <c r="F8" cm="1">
         <f t="array" ref="F8">_xll.INSTRUMENT.CASH_DEPOSIT(C8, E8)</f>
-        <v>-1618470</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+        <v>276728</v>
+      </c>
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+      <c r="I8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -563,10 +2162,16 @@
       </c>
       <c r="F9" cm="1">
         <f t="array" ref="F9">_xll.INSTRUMENT.CASH_DEPOSIT(C9, E9)</f>
-        <v>-1618494</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+        <v>276704</v>
+      </c>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+      <c r="I9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
@@ -577,10 +2182,17 @@
         <v>0.25</v>
       </c>
       <c r="E10">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="I10">
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -591,10 +2203,17 @@
         <v>0.25</v>
       </c>
       <c r="E11">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="H11">
+        <v>0.6</v>
+      </c>
+      <c r="I11">
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -605,10 +2224,17 @@
         <v>0.25</v>
       </c>
       <c r="E12">
+        <v>0.02</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="H12">
+        <v>0.7</v>
+      </c>
+      <c r="I12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -619,10 +2245,17 @@
         <v>0.25</v>
       </c>
       <c r="E13">
+        <v>0.02</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="H13">
+        <v>0.8</v>
+      </c>
+      <c r="I13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -633,10 +2266,17 @@
         <v>2</v>
       </c>
       <c r="E14">
+        <v>0.03</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="H14">
+        <v>0.9</v>
+      </c>
+      <c r="I14">
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -647,10 +2287,17 @@
         <v>2</v>
       </c>
       <c r="E15">
+        <v>0.03</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
@@ -661,10 +2308,17 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+        <v>0.03</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="H16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
@@ -675,11 +2329,724 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>0.01</v>
+        <v>0.03</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="H17">
+        <v>1.2</v>
+      </c>
+      <c r="I17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H18">
+        <v>1.3</v>
+      </c>
+      <c r="I18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H19">
+        <v>1.4</v>
+      </c>
+      <c r="I19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H20">
+        <v>1.5</v>
+      </c>
+      <c r="I20">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H21">
+        <v>1.6</v>
+      </c>
+      <c r="I21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H22">
+        <v>1.7</v>
+      </c>
+      <c r="I22">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H23">
+        <v>1.8</v>
+      </c>
+      <c r="I23">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H24">
+        <v>1.9</v>
+      </c>
+      <c r="I24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H26">
+        <v>2.1</v>
+      </c>
+      <c r="I26">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I27">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I28">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H29">
+        <v>2.4</v>
+      </c>
+      <c r="I29">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H30">
+        <v>2.5</v>
+      </c>
+      <c r="I30">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H31">
+        <v>2.6</v>
+      </c>
+      <c r="I31">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H32">
+        <v>2.7</v>
+      </c>
+      <c r="I32">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H33">
+        <v>2.8</v>
+      </c>
+      <c r="I33">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H34">
+        <v>2.9</v>
+      </c>
+      <c r="I34">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H36">
+        <v>3.1</v>
+      </c>
+      <c r="I36">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H37">
+        <v>3.2</v>
+      </c>
+      <c r="I37">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H38">
+        <v>3.3</v>
+      </c>
+      <c r="I38">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H39">
+        <v>3.4</v>
+      </c>
+      <c r="I39">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H40">
+        <v>3.5</v>
+      </c>
+      <c r="I40">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H41">
+        <v>3.6</v>
+      </c>
+      <c r="I41">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H42">
+        <v>3.7</v>
+      </c>
+      <c r="I42">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H43">
+        <v>3.8</v>
+      </c>
+      <c r="I43">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H44">
+        <v>3.9</v>
+      </c>
+      <c r="I44">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H46">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I46">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H47">
+        <v>4.2</v>
+      </c>
+      <c r="I47">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H48">
+        <v>4.3</v>
+      </c>
+      <c r="I48">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I49">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H50">
+        <v>4.5</v>
+      </c>
+      <c r="I50">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H51">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I51">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H52">
+        <v>4.7</v>
+      </c>
+      <c r="I52">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H53">
+        <v>4.8</v>
+      </c>
+      <c r="I53">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I54">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H56">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I56">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H57">
+        <v>5.2</v>
+      </c>
+      <c r="I57">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H58">
+        <v>5.3</v>
+      </c>
+      <c r="I58">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H59">
+        <v>5.4</v>
+      </c>
+      <c r="I59">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H60">
+        <v>5.5</v>
+      </c>
+      <c r="I60">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H61">
+        <v>5.6</v>
+      </c>
+      <c r="I61">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H62">
+        <v>5.7</v>
+      </c>
+      <c r="I62">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H63">
+        <v>5.8</v>
+      </c>
+      <c r="I63">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H64">
+        <v>5.9</v>
+      </c>
+      <c r="I64">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H66">
+        <v>6.1</v>
+      </c>
+      <c r="I66">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H67">
+        <v>6.2</v>
+      </c>
+      <c r="I67">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H68">
+        <v>6.3</v>
+      </c>
+      <c r="I68">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H69">
+        <v>6.4</v>
+      </c>
+      <c r="I69">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H70">
+        <v>6.5</v>
+      </c>
+      <c r="I70">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H71">
+        <v>6.6</v>
+      </c>
+      <c r="I71">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H72">
+        <v>6.7</v>
+      </c>
+      <c r="I72">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H73">
+        <v>6.8</v>
+      </c>
+      <c r="I73">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H74">
+        <v>6.9</v>
+      </c>
+      <c r="I74">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H75">
+        <v>7</v>
+      </c>
+      <c r="I75">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H76">
+        <v>7.1</v>
+      </c>
+      <c r="I76">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H77">
+        <v>7.2</v>
+      </c>
+      <c r="I77">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H78">
+        <v>7.3</v>
+      </c>
+      <c r="I78">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H79">
+        <v>7.4</v>
+      </c>
+      <c r="I79">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H80">
+        <v>7.5</v>
+      </c>
+      <c r="I80">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H81">
+        <v>7.6</v>
+      </c>
+      <c r="I81">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H82">
+        <v>7.7</v>
+      </c>
+      <c r="I82">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H83">
+        <v>7.8</v>
+      </c>
+      <c r="I83">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H84">
+        <v>7.9</v>
+      </c>
+      <c r="I84">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H85">
+        <v>8</v>
+      </c>
+      <c r="I85">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H86">
+        <v>8.1</v>
+      </c>
+      <c r="I86">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H87">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I87">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H88">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I88">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H89">
+        <v>8.4</v>
+      </c>
+      <c r="I89">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H90">
+        <v>8.5</v>
+      </c>
+      <c r="I90">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H91">
+        <v>8.6</v>
+      </c>
+      <c r="I91">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H92">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I92">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H93">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I93">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H94">
+        <v>8.9</v>
+      </c>
+      <c r="I94">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H95">
+        <v>9</v>
+      </c>
+      <c r="I95">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H96">
+        <v>9.1</v>
+      </c>
+      <c r="I96">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H97">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I97">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H98">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I98">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H99">
+        <v>9.4000000000000092</v>
+      </c>
+      <c r="I99">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H100">
+        <v>9.5</v>
+      </c>
+      <c r="I100">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H101">
+        <v>9.6</v>
+      </c>
+      <c r="I101">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H102">
+        <v>9.7000000000000099</v>
+      </c>
+      <c r="I102">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H103">
+        <v>9.8000000000000096</v>
+      </c>
+      <c r="I103">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="104" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H104">
+        <v>9.9000000000000092</v>
+      </c>
+      <c r="I104">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.45">
+      <c r="H105">
+        <v>10</v>
+      </c>
+      <c r="I105">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>